--- a/electrical/astrowiring_diagram.xlsx
+++ b/electrical/astrowiring_diagram.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrcampb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Documents\School\2018-19\Spring\ECE 4990-001        IEEE Robotics\astrohub\electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE4EE7D-F6A6-4EA2-B538-6FC63163C396}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +435,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,25 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,6 +584,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6699FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2BC507"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -810,143 +811,113 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,6 +927,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF2BC507"/>
       <color rgb="FF6699FF"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FF00CC99"/>
@@ -1236,43 +1208,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I2" s="31" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D3" s="30" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="53"/>
       <c r="I3" s="3" t="s">
         <v>78</v>
       </c>
@@ -1283,12 +1256,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="44">
         <v>1</v>
       </c>
       <c r="E4" s="1">
@@ -1308,14 +1281,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="38">
         <v>3</v>
       </c>
       <c r="E5" s="1">
@@ -1335,14 +1308,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="39">
         <v>5</v>
       </c>
       <c r="E6" s="1">
@@ -1362,14 +1335,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="45">
         <v>7</v>
       </c>
       <c r="E7" s="18">
@@ -1391,7 +1364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>101</v>
@@ -1418,7 +1391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1437,24 +1410,24 @@
       <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="2">
         <v>19</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="49">
         <v>13</v>
       </c>
       <c r="E10" s="1">
@@ -1465,14 +1438,14 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="50">
         <v>15</v>
       </c>
       <c r="E11" s="1">
@@ -1484,18 +1457,18 @@
       <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="51">
         <v>17</v>
       </c>
       <c r="E12" s="1">
@@ -1517,14 +1490,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="30">
         <v>19</v>
       </c>
       <c r="E13" s="1">
@@ -1544,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1573,7 +1546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1602,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>101</v>
@@ -1629,7 +1602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1658,7 +1631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1676,7 +1649,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,23 +1668,23 @@
       <c r="G19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="L19" s="52" t="s">
+      <c r="L19" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="52" t="s">
+      <c r="M19" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="N19" s="53" t="s">
+      <c r="N19" s="36" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1728,13 +1701,13 @@
         <v>101</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="51">
+      <c r="J20" s="28">
         <v>3</v>
       </c>
-      <c r="L20" s="70" t="s">
+      <c r="L20" s="46" t="s">
         <v>2</v>
       </c>
       <c r="M20" s="28">
@@ -1745,7 +1718,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1764,13 +1737,13 @@
       <c r="G21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="28">
         <v>5</v>
       </c>
-      <c r="L21" s="71" t="s">
+      <c r="L21" s="47" t="s">
         <v>132</v>
       </c>
       <c r="M21" s="28">
@@ -1780,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1796,7 +1769,7 @@
       <c r="G22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="72" t="s">
+      <c r="L22" s="48" t="s">
         <v>133</v>
       </c>
       <c r="M22" s="28">
@@ -1806,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>101</v>
@@ -1823,55 +1796,55 @@
       <c r="G23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="52" t="s">
+      <c r="I23" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="J23" s="52" t="s">
+      <c r="J23" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="K23" s="52" t="s">
+      <c r="K23" s="36" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="34"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="I24" s="65" t="s">
+      <c r="I24" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="28">
         <v>1</v>
       </c>
       <c r="K24" s="28"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="I25" s="66" t="s">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="I25" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="28">
         <v>7</v>
       </c>
       <c r="K25" s="28">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D26" s="30" t="s">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E26" s="53"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1885,7 +1858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
@@ -1905,7 +1878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1925,7 +1898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1939,40 +1912,40 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D35" s="30" t="s">
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="D35" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="H35" s="52" t="s">
+      <c r="E35" s="53"/>
+      <c r="H35" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="52" t="s">
+      <c r="I35" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="K35" s="49" t="s">
+      <c r="K35" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="L35" s="49" t="s">
+      <c r="L35" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="M35" s="49" t="s">
+      <c r="M35" s="34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="D36" s="5" t="s">
         <v>85</v>
@@ -1980,23 +1953,23 @@
       <c r="E36" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H36" s="58" t="s">
+      <c r="H36" s="41" t="s">
         <v>126</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="K36" s="39">
+      <c r="K36" s="57">
         <v>1</v>
       </c>
-      <c r="L36" s="41" t="s">
+      <c r="L36" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="M36" s="60" t="s">
+      <c r="M36" s="40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="D37" s="5" t="s">
         <v>86</v>
@@ -2010,15 +1983,15 @@
       <c r="I37" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="39"/>
-      <c r="L37" s="43" t="s">
+      <c r="K37" s="57"/>
+      <c r="L37" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="M37" s="60" t="s">
+      <c r="M37" s="40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="D38" s="5" t="s">
         <v>87</v>
@@ -2026,23 +1999,23 @@
       <c r="E38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H38" s="57" t="s">
+      <c r="H38" s="59" t="s">
         <v>128</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="K38" s="40">
+      <c r="K38" s="57">
         <v>2</v>
       </c>
-      <c r="L38" s="45" t="s">
+      <c r="L38" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="M38" s="60" t="s">
+      <c r="M38" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="D39" s="5" t="s">
         <v>101</v>
@@ -2050,139 +2023,139 @@
       <c r="E39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="62" t="s">
+      <c r="H39" s="58" t="s">
         <v>125</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="K39" s="40"/>
-      <c r="L39" s="44" t="s">
+      <c r="K39" s="57"/>
+      <c r="L39" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="M39" s="60" t="s">
+      <c r="M39" s="40" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="38"/>
-      <c r="D40" s="63" t="s">
+    <row r="40" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="32"/>
+      <c r="D40" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E40" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="K40" s="40">
+      <c r="K40" s="57">
         <v>3</v>
       </c>
-      <c r="L40" s="47" t="s">
+      <c r="L40" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="M40" s="60" t="s">
+      <c r="M40" s="40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="62" t="s">
+      <c r="D41" s="58" t="s">
         <v>89</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K41" s="40"/>
-      <c r="L41" s="48" t="s">
+      <c r="K41" s="57"/>
+      <c r="L41" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="M41" s="60" t="s">
+      <c r="M41" s="40" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C42" s="5"/>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="35" t="s">
         <v>90</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="60" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="62" t="s">
         <v>92</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="61" t="s">
         <v>93</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
-      <c r="D46" s="48" t="s">
+      <c r="D46" s="63" t="s">
         <v>94</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C47" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="41" t="s">
         <v>95</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="61" t="s">
+      <c r="D48" s="64" t="s">
         <v>96</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C49" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="59" t="s">
         <v>97</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="D50" s="5" t="s">
         <v>98</v>
@@ -2191,42 +2164,42 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D51" s="34" t="s">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="34"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="52"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D24:E25"/>
     <mergeCell ref="D51:E52"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="K36:K37"/>
     <mergeCell ref="K38:K39"/>
     <mergeCell ref="K40:K41"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D24:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/electrical/astrowiring_diagram.xlsx
+++ b/electrical/astrowiring_diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Documents\School\2018-19\Spring\ECE 4990-001        IEEE Robotics\astrohub\electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE4EE7D-F6A6-4EA2-B538-6FC63163C396}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510D36F1-0669-46EE-9A02-B097B81CA9AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,12 +530,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -811,112 +805,109 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1212,7 +1203,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,27 +1216,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
       <c r="L2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="52"/>
       <c r="I3" s="3" t="s">
         <v>78</v>
       </c>
@@ -1261,7 +1252,7 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="43">
         <v>1</v>
       </c>
       <c r="E4" s="1">
@@ -1288,7 +1279,7 @@
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>3</v>
       </c>
       <c r="E5" s="1">
@@ -1315,7 +1306,7 @@
       <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="38">
         <v>5</v>
       </c>
       <c r="E6" s="1">
@@ -1342,7 +1333,7 @@
       <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <v>7</v>
       </c>
       <c r="E7" s="18">
@@ -1410,7 +1401,7 @@
       <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="23" t="s">
         <v>116</v>
       </c>
       <c r="J9" s="2">
@@ -1427,7 +1418,7 @@
       <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="48">
         <v>13</v>
       </c>
       <c r="E10" s="1">
@@ -1445,7 +1436,7 @@
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="49">
         <v>15</v>
       </c>
       <c r="E11" s="1">
@@ -1457,18 +1448,18 @@
       <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="50">
         <v>17</v>
       </c>
       <c r="E12" s="1">
@@ -1497,7 +1488,7 @@
       <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="23">
         <v>19</v>
       </c>
       <c r="E13" s="1">
@@ -1668,19 +1659,19 @@
       <c r="G19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="L19" s="36" t="s">
+      <c r="L19" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="36" t="s">
+      <c r="M19" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="N19" s="36" t="s">
+      <c r="N19" s="35" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1701,13 +1692,13 @@
         <v>101</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="32" t="s">
         <v>122</v>
       </c>
       <c r="J20" s="28">
         <v>3</v>
       </c>
-      <c r="L20" s="46" t="s">
+      <c r="L20" s="45" t="s">
         <v>2</v>
       </c>
       <c r="M20" s="28">
@@ -1737,13 +1728,13 @@
       <c r="G21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="36" t="s">
         <v>123</v>
       </c>
       <c r="J21" s="28">
         <v>5</v>
       </c>
-      <c r="L21" s="47" t="s">
+      <c r="L21" s="46" t="s">
         <v>132</v>
       </c>
       <c r="M21" s="28">
@@ -1769,7 +1760,7 @@
       <c r="G22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="48" t="s">
+      <c r="L22" s="47" t="s">
         <v>133</v>
       </c>
       <c r="M22" s="28">
@@ -1796,26 +1787,26 @@
       <c r="G23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="J23" s="36" t="s">
+      <c r="J23" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="52"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="41" t="s">
         <v>2</v>
       </c>
       <c r="J24" s="28">
@@ -1824,9 +1815,9 @@
       <c r="K24" s="28"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="I25" s="43" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="I25" s="42" t="s">
         <v>130</v>
       </c>
       <c r="J25" s="28">
@@ -1837,10 +1828,10 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="53"/>
+      <c r="E26" s="52"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
@@ -1913,11 +1904,11 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -1925,23 +1916,23 @@
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="D35" s="53" t="s">
+      <c r="D35" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="53"/>
-      <c r="H35" s="36" t="s">
+      <c r="E35" s="52"/>
+      <c r="H35" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="36" t="s">
+      <c r="I35" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="K35" s="34" t="s">
+      <c r="K35" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="L35" s="34" t="s">
+      <c r="L35" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="M35" s="34" t="s">
+      <c r="M35" s="33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1953,19 +1944,19 @@
       <c r="E36" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H36" s="41" t="s">
+      <c r="H36" s="40" t="s">
         <v>126</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="K36" s="57">
+      <c r="K36" s="56">
         <v>1</v>
       </c>
-      <c r="L36" s="65" t="s">
+      <c r="L36" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="M36" s="40" t="s">
+      <c r="M36" s="39" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1977,17 +1968,17 @@
       <c r="E37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H37" s="64" t="s">
+      <c r="H37" s="63" t="s">
         <v>127</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="57"/>
-      <c r="L37" s="35" t="s">
+      <c r="K37" s="56"/>
+      <c r="L37" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="M37" s="40" t="s">
+      <c r="M37" s="39" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1999,19 +1990,19 @@
       <c r="E38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H38" s="59" t="s">
+      <c r="H38" s="58" t="s">
         <v>128</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="K38" s="57">
+      <c r="K38" s="56">
         <v>2</v>
       </c>
-      <c r="L38" s="60" t="s">
+      <c r="L38" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="M38" s="40" t="s">
+      <c r="M38" s="39" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2023,35 +2014,35 @@
       <c r="E39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="57" t="s">
         <v>125</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="K39" s="57"/>
-      <c r="L39" s="62" t="s">
+      <c r="K39" s="56"/>
+      <c r="L39" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="M39" s="40" t="s">
+      <c r="M39" s="39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="32"/>
-      <c r="D40" s="65" t="s">
+    <row r="40" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="31"/>
+      <c r="D40" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="K40" s="57">
+      <c r="K40" s="56">
         <v>3</v>
       </c>
-      <c r="L40" s="61" t="s">
+      <c r="L40" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="M40" s="40" t="s">
+      <c r="M40" s="39" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2059,23 +2050,23 @@
       <c r="C41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="58" t="s">
+      <c r="D41" s="57" t="s">
         <v>89</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K41" s="57"/>
-      <c r="L41" s="63" t="s">
+      <c r="K41" s="56"/>
+      <c r="L41" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="M41" s="40" t="s">
+      <c r="M41" s="39" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C42" s="5"/>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="34" t="s">
         <v>90</v>
       </c>
       <c r="E42" s="5" t="s">
@@ -2086,7 +2077,7 @@
       <c r="C43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="60" t="s">
+      <c r="D43" s="59" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -2097,7 +2088,7 @@
       <c r="C44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="62" t="s">
+      <c r="D44" s="61" t="s">
         <v>92</v>
       </c>
       <c r="E44" s="5" t="s">
@@ -2106,7 +2097,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="61" t="s">
+      <c r="D45" s="60" t="s">
         <v>93</v>
       </c>
       <c r="E45" s="5" t="s">
@@ -2115,7 +2106,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
-      <c r="D46" s="63" t="s">
+      <c r="D46" s="62" t="s">
         <v>94</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -2126,7 +2117,7 @@
       <c r="C47" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="40" t="s">
         <v>95</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -2137,7 +2128,7 @@
       <c r="C48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="64" t="s">
+      <c r="D48" s="63" t="s">
         <v>96</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -2148,7 +2139,7 @@
       <c r="C49" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="58" t="s">
         <v>97</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -2165,14 +2156,14 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="52"/>
+      <c r="E51" s="51"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D53" s="5"/>

--- a/electrical/astrowiring_diagram.xlsx
+++ b/electrical/astrowiring_diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Documents\School\2018-19\Spring\ECE 4990-001        IEEE Robotics\astrohub\electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510D36F1-0669-46EE-9A02-B097B81CA9AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1018EE02-7A2F-49DB-BC61-96BE24EDA862}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,47 +868,47 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,27 +1216,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
       <c r="L2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="52"/>
+      <c r="E3" s="59"/>
       <c r="I3" s="3" t="s">
         <v>78</v>
       </c>
@@ -1448,11 +1448,11 @@
       <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -1800,10 +1800,10 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="51"/>
+      <c r="E24" s="63"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="I24" s="41" t="s">
@@ -1815,8 +1815,8 @@
       <c r="K24" s="28"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
       <c r="I25" s="42" t="s">
         <v>130</v>
       </c>
@@ -1828,10 +1828,10 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="52"/>
+      <c r="E26" s="59"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
@@ -1904,11 +1904,11 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -1916,10 +1916,10 @@
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="52"/>
+      <c r="E35" s="59"/>
       <c r="H35" s="35" t="s">
         <v>124</v>
       </c>
@@ -1950,10 +1950,10 @@
       <c r="I36" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="K36" s="56">
+      <c r="K36" s="64">
         <v>1</v>
       </c>
-      <c r="L36" s="64" t="s">
+      <c r="L36" s="58" t="s">
         <v>119</v>
       </c>
       <c r="M36" s="39" t="s">
@@ -1968,13 +1968,13 @@
       <c r="E37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H37" s="63" t="s">
+      <c r="H37" s="57" t="s">
         <v>127</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="56"/>
+      <c r="K37" s="64"/>
       <c r="L37" s="34" t="s">
         <v>120</v>
       </c>
@@ -1990,16 +1990,16 @@
       <c r="E38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H38" s="58" t="s">
+      <c r="H38" s="52" t="s">
         <v>128</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="K38" s="56">
+      <c r="K38" s="64">
         <v>2</v>
       </c>
-      <c r="L38" s="59" t="s">
+      <c r="L38" s="53" t="s">
         <v>119</v>
       </c>
       <c r="M38" s="39" t="s">
@@ -2014,14 +2014,14 @@
       <c r="E39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="57" t="s">
+      <c r="H39" s="51" t="s">
         <v>125</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="K39" s="56"/>
-      <c r="L39" s="61" t="s">
+      <c r="K39" s="64"/>
+      <c r="L39" s="55" t="s">
         <v>120</v>
       </c>
       <c r="M39" s="39" t="s">
@@ -2030,16 +2030,16 @@
     </row>
     <row r="40" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="31"/>
-      <c r="D40" s="64" t="s">
+      <c r="D40" s="58" t="s">
         <v>88</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="K40" s="56">
+      <c r="K40" s="64">
         <v>3</v>
       </c>
-      <c r="L40" s="60" t="s">
+      <c r="L40" s="54" t="s">
         <v>119</v>
       </c>
       <c r="M40" s="39" t="s">
@@ -2050,14 +2050,14 @@
       <c r="C41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="51" t="s">
         <v>89</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K41" s="56"/>
-      <c r="L41" s="62" t="s">
+      <c r="K41" s="64"/>
+      <c r="L41" s="56" t="s">
         <v>120</v>
       </c>
       <c r="M41" s="39" t="s">
@@ -2077,7 +2077,7 @@
       <c r="C43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="59" t="s">
+      <c r="D43" s="53" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -2088,7 +2088,7 @@
       <c r="C44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="55" t="s">
         <v>92</v>
       </c>
       <c r="E44" s="5" t="s">
@@ -2097,7 +2097,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="54" t="s">
         <v>93</v>
       </c>
       <c r="E45" s="5" t="s">
@@ -2106,7 +2106,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
-      <c r="D46" s="62" t="s">
+      <c r="D46" s="56" t="s">
         <v>94</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -2128,7 +2128,7 @@
       <c r="C48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="63" t="s">
+      <c r="D48" s="57" t="s">
         <v>96</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -2139,7 +2139,7 @@
       <c r="C49" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="58" t="s">
+      <c r="D49" s="52" t="s">
         <v>97</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -2156,14 +2156,14 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="51" t="s">
+      <c r="D51" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="51"/>
+      <c r="E51" s="63"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D53" s="5"/>
@@ -2179,18 +2179,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D24:E25"/>
-    <mergeCell ref="D51:E52"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K40:K41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/electrical/astrowiring_diagram.xlsx
+++ b/electrical/astrowiring_diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Documents\School\2018-19\Spring\ECE 4990-001        IEEE Robotics\astrohub\electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1018EE02-7A2F-49DB-BC61-96BE24EDA862}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2C991B-D44E-4BCA-A0F8-70896BB53BD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="143">
   <si>
     <t>Raspberry Pi 3B</t>
   </si>
@@ -430,6 +430,30 @@
   </si>
   <si>
     <t>*splice wire into two</t>
+  </si>
+  <si>
+    <t>Stepper</t>
+  </si>
+  <si>
+    <t>DIR</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>ENABLE</t>
+  </si>
+  <si>
+    <t>BREAK</t>
   </si>
 </sst>
 </file>
@@ -600,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -635,17 +659,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -655,30 +668,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -726,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -741,40 +734,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -893,19 +868,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -935,6 +910,78 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DDD7D8-FD6E-442D-8EF5-A82B21FF371F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5449957" y="1896717"/>
+          <a:ext cx="3097695" cy="1358348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1200,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,30 +1260,31 @@
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
       <c r="L2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="59"/>
+      <c r="E3" s="54"/>
       <c r="I3" s="3" t="s">
         <v>78</v>
       </c>
@@ -1252,7 +1300,7 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="37">
         <v>1</v>
       </c>
       <c r="E4" s="1">
@@ -1262,7 +1310,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="21" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="2">
@@ -1279,7 +1327,7 @@
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="31">
         <v>3</v>
       </c>
       <c r="E5" s="1">
@@ -1289,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="14" t="s">
         <v>71</v>
       </c>
       <c r="J5" s="2">
@@ -1306,7 +1354,7 @@
       <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="32">
         <v>5</v>
       </c>
       <c r="E6" s="1">
@@ -1316,7 +1364,7 @@
         <v>101</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="13" t="s">
         <v>72</v>
       </c>
       <c r="J6" s="2">
@@ -1333,10 +1381,10 @@
       <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="38">
         <v>7</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="12">
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1345,7 +1393,7 @@
       <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="20" t="s">
         <v>73</v>
       </c>
       <c r="J7" s="2">
@@ -1372,7 +1420,7 @@
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J8" s="2">
@@ -1401,7 +1449,7 @@
       <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="17" t="s">
         <v>116</v>
       </c>
       <c r="J9" s="2">
@@ -1418,7 +1466,7 @@
       <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="42">
         <v>13</v>
       </c>
       <c r="E10" s="1">
@@ -1436,7 +1484,7 @@
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="43">
         <v>15</v>
       </c>
       <c r="E11" s="1">
@@ -1448,18 +1496,18 @@
       <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="44">
         <v>17</v>
       </c>
       <c r="E12" s="1">
@@ -1488,7 +1536,7 @@
       <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="17">
         <v>19</v>
       </c>
       <c r="E13" s="1">
@@ -1498,7 +1546,7 @@
         <v>101</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="16" t="s">
         <v>76</v>
       </c>
       <c r="J13" s="2">
@@ -1515,10 +1563,10 @@
       <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="10">
         <v>21</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="1">
         <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1527,7 +1575,7 @@
       <c r="G14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="17" t="s">
         <v>79</v>
       </c>
       <c r="J14" s="2">
@@ -1544,10 +1592,10 @@
       <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
         <v>23</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="1">
         <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1556,7 +1604,7 @@
       <c r="G15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="23" t="s">
         <v>80</v>
       </c>
       <c r="J15" s="2">
@@ -1574,7 +1622,7 @@
       <c r="D16" s="6">
         <v>25</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="1">
         <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1583,7 +1631,7 @@
       <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="18" t="s">
         <v>81</v>
       </c>
       <c r="J16" s="2">
@@ -1600,10 +1648,10 @@
       <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="8">
         <v>27</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="1">
         <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1612,7 +1660,7 @@
       <c r="G17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="19" t="s">
         <v>82</v>
       </c>
       <c r="J17" s="2">
@@ -1629,10 +1677,10 @@
       <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="11">
         <v>29</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="1">
         <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1647,10 +1695,10 @@
       <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="9">
         <v>31</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="1">
         <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1659,19 +1707,19 @@
       <c r="G19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="L19" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="35" t="s">
+      <c r="M19" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="N19" s="35" t="s">
+      <c r="N19" s="29" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1692,19 +1740,19 @@
         <v>101</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="22">
         <v>3</v>
       </c>
-      <c r="L20" s="45" t="s">
+      <c r="L20" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="22">
         <v>17</v>
       </c>
-      <c r="N20" s="28"/>
+      <c r="N20" s="22"/>
       <c r="O20" t="s">
         <v>134</v>
       </c>
@@ -1728,19 +1776,19 @@
       <c r="G21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="22">
         <v>5</v>
       </c>
-      <c r="L21" s="46" t="s">
+      <c r="L21" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M21" s="22">
         <v>13</v>
       </c>
-      <c r="N21" s="28">
+      <c r="N21" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1760,13 +1808,13 @@
       <c r="G22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="47" t="s">
+      <c r="L22" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22" s="22">
         <v>14</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N22" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1787,51 +1835,51 @@
       <c r="G23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="J23" s="35" t="s">
+      <c r="J23" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="K23" s="35" t="s">
+      <c r="K23" s="29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="63"/>
+      <c r="E24" s="53"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="22">
         <v>1</v>
       </c>
-      <c r="K24" s="28"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="I25" s="42" t="s">
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="I25" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="22">
         <v>7</v>
       </c>
-      <c r="K25" s="28">
+      <c r="K25" s="22">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="59"/>
+      <c r="E26" s="54"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
@@ -1903,40 +1951,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="D35" s="59" t="s">
+    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="D35" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="H35" s="35" t="s">
+      <c r="E35" s="54"/>
+      <c r="H35" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="35" t="s">
+      <c r="I35" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="K35" s="33" t="s">
+      <c r="K35" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="L35" s="33" t="s">
+      <c r="L35" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="M35" s="33" t="s">
+      <c r="M35" s="27" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O35" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="R35" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="S35" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="D36" s="5" t="s">
         <v>85</v>
@@ -1944,23 +2004,35 @@
       <c r="E36" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H36" s="40" t="s">
+      <c r="H36" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="I36" s="28" t="s">
+      <c r="I36" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="K36" s="64">
+      <c r="K36" s="58">
         <v>1</v>
       </c>
-      <c r="L36" s="58" t="s">
+      <c r="L36" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="M36" s="39" t="s">
+      <c r="M36" s="33" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O36" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="P36" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="R36" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="S36" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="D37" s="5" t="s">
         <v>86</v>
@@ -1968,21 +2040,27 @@
       <c r="E37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H37" s="57" t="s">
+      <c r="H37" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="I37" s="28" t="s">
+      <c r="I37" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="64"/>
-      <c r="L37" s="34" t="s">
+      <c r="K37" s="58"/>
+      <c r="L37" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="M37" s="39" t="s">
+      <c r="M37" s="33" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O37" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="P37" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="D38" s="5" t="s">
         <v>87</v>
@@ -1990,23 +2068,29 @@
       <c r="E38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H38" s="52" t="s">
+      <c r="H38" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="I38" s="28" t="s">
+      <c r="I38" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="K38" s="64">
+      <c r="K38" s="58">
         <v>2</v>
       </c>
-      <c r="L38" s="53" t="s">
+      <c r="L38" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="M38" s="39" t="s">
+      <c r="M38" s="33" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O38" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="P38" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="D39" s="5" t="s">
         <v>101</v>
@@ -2014,121 +2098,139 @@
       <c r="E39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="51" t="s">
+      <c r="H39" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="I39" s="28" t="s">
+      <c r="I39" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="K39" s="64"/>
-      <c r="L39" s="55" t="s">
+      <c r="K39" s="58"/>
+      <c r="L39" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="M39" s="39" t="s">
+      <c r="M39" s="33" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="31"/>
-      <c r="D40" s="58" t="s">
+      <c r="O39" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="P39" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="25"/>
+      <c r="D40" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="K40" s="64">
+      <c r="K40" s="58">
         <v>3</v>
       </c>
-      <c r="L40" s="54" t="s">
+      <c r="L40" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="M40" s="39" t="s">
+      <c r="M40" s="33" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O40" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="P40" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="K41" s="64"/>
-      <c r="L41" s="56" t="s">
+      <c r="K41" s="58"/>
+      <c r="L41" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="M41" s="39" t="s">
+      <c r="M41" s="33" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O41" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="P41" s="33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C42" s="5"/>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="52" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="28" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="47" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="54" t="s">
+      <c r="D45" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
-      <c r="D46" s="56" t="s">
+      <c r="D46" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="48" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C47" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="50" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="51" t="s">
         <v>96</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -2139,7 +2241,7 @@
       <c r="C49" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="46" t="s">
         <v>97</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -2156,14 +2258,14 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="63" t="s">
+      <c r="D51" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="63"/>
+      <c r="E51" s="53"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D53" s="5"/>
@@ -2179,20 +2281,21 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D24:E25"/>
     <mergeCell ref="D51:E52"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="K36:K37"/>
     <mergeCell ref="K38:K39"/>
     <mergeCell ref="K40:K41"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D24:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/electrical/astrowiring_diagram.xlsx
+++ b/electrical/astrowiring_diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Documents\School\2018-19\Spring\ECE 4990-001        IEEE Robotics\astrohub\electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2C991B-D44E-4BCA-A0F8-70896BB53BD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893B1119-7765-438D-8C5C-0BCB32072B7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3915" yWindow="5985" windowWidth="8685" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="138">
   <si>
     <t>Raspberry Pi 3B</t>
   </si>
@@ -414,12 +414,6 @@
     <t>Door 3</t>
   </si>
   <si>
-    <t>IR Gate Sensor</t>
-  </si>
-  <si>
-    <t>Signal</t>
-  </si>
-  <si>
     <t>Proximity Sensor</t>
   </si>
   <si>
@@ -435,25 +429,16 @@
     <t>Stepper</t>
   </si>
   <si>
-    <t>DIR</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>ENABLE</t>
-  </si>
-  <si>
     <t>BREAK</t>
+  </si>
+  <si>
+    <t>turns red</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>a6</t>
   </si>
 </sst>
 </file>
@@ -490,7 +475,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,12 +544,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -572,18 +551,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3399"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99FF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,8 +590,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -715,11 +688,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -755,9 +739,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,7 +751,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -786,9 +766,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -798,74 +775,95 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -917,13 +915,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>182217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>8282</xdr:colOff>
+      <xdr:colOff>8283</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:to>
@@ -940,7 +938,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5449957" y="1896717"/>
+          <a:off x="5449958" y="1896717"/>
           <a:ext cx="3097695" cy="1358348"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1249,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="K25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,27 +1262,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
       <c r="L2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>78</v>
       </c>
@@ -1300,7 +1298,7 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="50">
         <v>1</v>
       </c>
       <c r="E4" s="1">
@@ -1310,7 +1308,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="17" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="2">
@@ -1327,7 +1325,7 @@
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="48">
         <v>3</v>
       </c>
       <c r="E5" s="1">
@@ -1337,7 +1335,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="52" t="s">
         <v>71</v>
       </c>
       <c r="J5" s="2">
@@ -1354,17 +1352,17 @@
       <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="26">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="44">
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="50" t="s">
         <v>72</v>
       </c>
       <c r="J6" s="2">
@@ -1381,7 +1379,7 @@
       <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="2">
         <v>7</v>
       </c>
       <c r="E7" s="12">
@@ -1393,7 +1391,7 @@
       <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="53" t="s">
         <v>73</v>
       </c>
       <c r="J7" s="2">
@@ -1408,7 +1406,7 @@
       <c r="C8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="14">
         <v>9</v>
       </c>
       <c r="E8" s="1">
@@ -1420,7 +1418,7 @@
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="54" t="s">
         <v>74</v>
       </c>
       <c r="J8" s="2">
@@ -1449,7 +1447,7 @@
       <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="14" t="s">
         <v>116</v>
       </c>
       <c r="J9" s="2">
@@ -1466,7 +1464,7 @@
       <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="32">
         <v>13</v>
       </c>
       <c r="E10" s="1">
@@ -1484,7 +1482,7 @@
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="33">
         <v>15</v>
       </c>
       <c r="E11" s="1">
@@ -1496,18 +1494,18 @@
       <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="34">
         <v>17</v>
       </c>
       <c r="E12" s="1">
@@ -1536,7 +1534,7 @@
       <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <v>19</v>
       </c>
       <c r="E13" s="1">
@@ -1546,7 +1544,7 @@
         <v>101</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="13" t="s">
         <v>76</v>
       </c>
       <c r="J13" s="2">
@@ -1575,7 +1573,7 @@
       <c r="G14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="14" t="s">
         <v>79</v>
       </c>
       <c r="J14" s="2">
@@ -1604,7 +1602,7 @@
       <c r="G15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="19" t="s">
         <v>80</v>
       </c>
       <c r="J15" s="2">
@@ -1631,7 +1629,7 @@
       <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="15" t="s">
         <v>81</v>
       </c>
       <c r="J16" s="2">
@@ -1660,7 +1658,7 @@
       <c r="G17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J17" s="2">
@@ -1707,19 +1705,19 @@
       <c r="G19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="L19" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="M19" s="29" t="s">
+      <c r="L19" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="M19" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="N19" s="29" t="s">
+      <c r="N19" s="24" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1740,21 +1738,21 @@
         <v>101</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="18">
         <v>3</v>
       </c>
-      <c r="L20" s="39" t="s">
+      <c r="L20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="18">
         <v>17</v>
       </c>
-      <c r="N20" s="22"/>
+      <c r="N20" s="18"/>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
@@ -1776,19 +1774,19 @@
       <c r="G21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="18">
         <v>5</v>
       </c>
-      <c r="L21" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="M21" s="22">
+      <c r="L21" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="M21" s="18">
         <v>13</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="18">
         <v>2</v>
       </c>
     </row>
@@ -1808,13 +1806,22 @@
       <c r="G22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="M22" s="22">
+      <c r="I22" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="18">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="M22" s="18">
         <v>14</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1835,51 +1842,32 @@
       <c r="G23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>115</v>
+      <c r="I23" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="45">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="53"/>
+      <c r="E24" s="55"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="I24" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="22">
-        <v>1</v>
-      </c>
-      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="I25" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="22">
-        <v>7</v>
-      </c>
-      <c r="K25" s="22">
-        <v>7</v>
-      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="54"/>
+      <c r="E26" s="56"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
@@ -1952,11 +1940,11 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -1964,35 +1952,35 @@
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="54"/>
-      <c r="H35" s="29" t="s">
+      <c r="E35" s="56"/>
+      <c r="H35" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="29" t="s">
+      <c r="I35" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="K35" s="27" t="s">
+      <c r="K35" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="L35" s="27" t="s">
+      <c r="L35" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="M35" s="27" t="s">
+      <c r="M35" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="O35" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="P35" s="27" t="s">
+      <c r="O35" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="P35" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="R35" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="S35" s="27" t="s">
+      <c r="R35" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="S35" s="22" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2004,32 +1992,32 @@
       <c r="E36" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="K36" s="58">
+      <c r="K36" s="60">
         <v>1</v>
       </c>
-      <c r="L36" s="52" t="s">
+      <c r="L36" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="M36" s="33" t="s">
+      <c r="M36" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="O36" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="P36" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="R36" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="S36" s="33" t="s">
-        <v>103</v>
+      <c r="O36" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="R36" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="S36" s="27" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -2040,24 +2028,24 @@
       <c r="E37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H37" s="51" t="s">
+      <c r="H37" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I37" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="58"/>
-      <c r="L37" s="28" t="s">
+      <c r="K37" s="60"/>
+      <c r="L37" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="M37" s="33" t="s">
+      <c r="M37" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="O37" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="P37" s="33" t="s">
-        <v>108</v>
+      <c r="O37" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -2068,26 +2056,26 @@
       <c r="E38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H38" s="46" t="s">
+      <c r="H38" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="K38" s="58">
+      <c r="K38" s="60">
         <v>2</v>
       </c>
-      <c r="L38" s="47" t="s">
+      <c r="L38" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="M38" s="33" t="s">
+      <c r="M38" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="O38" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="P38" s="33" t="s">
-        <v>107</v>
+      <c r="O38" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -2098,80 +2086,80 @@
       <c r="E39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="45" t="s">
+      <c r="H39" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="K39" s="58"/>
-      <c r="L39" s="49" t="s">
+      <c r="K39" s="60"/>
+      <c r="L39" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="M39" s="33" t="s">
+      <c r="M39" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O39" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="P39" s="33" t="s">
+      <c r="O39" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="21"/>
+      <c r="D40" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="60">
+        <v>3</v>
+      </c>
+      <c r="L40" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="O40" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P40" s="27" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="D40" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="K40" s="58">
-        <v>3</v>
-      </c>
-      <c r="L40" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="M40" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="O40" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="P40" s="33" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="K41" s="58"/>
-      <c r="L41" s="50" t="s">
+      <c r="K41" s="60"/>
+      <c r="L41" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="M41" s="33" t="s">
+      <c r="M41" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="O41" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="P41" s="33" t="s">
-        <v>104</v>
+      <c r="O41" t="s">
+        <v>136</v>
+      </c>
+      <c r="P41" s="51" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C42" s="5"/>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="42" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2179,10 +2167,10 @@
       <c r="C43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="13" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2190,28 +2178,28 @@
       <c r="C44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="49" t="s">
+      <c r="E45" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="48" t="s">
+      <c r="E46" s="19" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2219,10 +2207,10 @@
       <c r="C47" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E47" s="14" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2230,7 +2218,7 @@
       <c r="C48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="41" t="s">
         <v>96</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -2241,7 +2229,7 @@
       <c r="C49" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="36" t="s">
         <v>97</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -2258,14 +2246,14 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="53" t="s">
+      <c r="D51" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="53"/>
+      <c r="E51" s="55"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D53" s="5"/>

--- a/electrical/astrowiring_diagram.xlsx
+++ b/electrical/astrowiring_diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Documents\School\2018-19\Spring\ECE 4990-001        IEEE Robotics\astrohub\electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893B1119-7765-438D-8C5C-0BCB32072B7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159B1F33-DD54-4220-A17B-13BD580F9C33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3915" yWindow="5985" windowWidth="8685" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,24 +551,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF33CCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6699FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -787,98 +769,83 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,27 +1229,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
       <c r="L2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="56"/>
+      <c r="E3" s="50"/>
       <c r="I3" s="3" t="s">
         <v>78</v>
       </c>
@@ -1298,7 +1265,7 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="44">
         <v>1</v>
       </c>
       <c r="E4" s="1">
@@ -1325,7 +1292,7 @@
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="42">
         <v>3</v>
       </c>
       <c r="E5" s="1">
@@ -1335,7 +1302,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="46" t="s">
         <v>71</v>
       </c>
       <c r="J5" s="2">
@@ -1355,14 +1322,14 @@
       <c r="D6" s="26">
         <v>5</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="38">
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="44" t="s">
         <v>72</v>
       </c>
       <c r="J6" s="2">
@@ -1391,7 +1358,7 @@
       <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="47" t="s">
         <v>73</v>
       </c>
       <c r="J7" s="2">
@@ -1418,7 +1385,7 @@
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="48" t="s">
         <v>74</v>
       </c>
       <c r="J8" s="2">
@@ -1464,7 +1431,7 @@
       <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="49">
         <v>13</v>
       </c>
       <c r="E10" s="1">
@@ -1494,18 +1461,18 @@
       <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="11">
         <v>17</v>
       </c>
       <c r="E12" s="1">
@@ -1738,13 +1705,13 @@
         <v>101</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="41" t="s">
         <v>122</v>
       </c>
       <c r="J20" s="18">
         <v>3</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L20" s="11" t="s">
         <v>2</v>
       </c>
       <c r="M20" s="18">
@@ -1780,7 +1747,7 @@
       <c r="J21" s="18">
         <v>5</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="33" t="s">
         <v>130</v>
       </c>
       <c r="M21" s="18">
@@ -1806,7 +1773,7 @@
       <c r="G22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="40" t="s">
         <v>2</v>
       </c>
       <c r="J22" s="18">
@@ -1815,7 +1782,7 @@
       <c r="K22" t="s">
         <v>135</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="49" t="s">
         <v>131</v>
       </c>
       <c r="M22" s="18">
@@ -1842,32 +1809,32 @@
       <c r="G23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="49" t="s">
+      <c r="I23" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="39">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="55"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="56"/>
+      <c r="E26" s="50"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
@@ -1940,11 +1907,11 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -1952,10 +1919,10 @@
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="56"/>
+      <c r="E35" s="50"/>
       <c r="H35" s="24" t="s">
         <v>124</v>
       </c>
@@ -1998,10 +1965,10 @@
       <c r="I36" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="K36" s="60">
+      <c r="K36" s="55">
         <v>1</v>
       </c>
-      <c r="L36" s="42" t="s">
+      <c r="L36" s="36" t="s">
         <v>119</v>
       </c>
       <c r="M36" s="27" t="s">
@@ -2013,7 +1980,7 @@
       <c r="P36" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="R36" s="42" t="s">
+      <c r="R36" s="36" t="s">
         <v>134</v>
       </c>
       <c r="S36" s="27" t="s">
@@ -2028,13 +1995,13 @@
       <c r="E37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H37" s="41" t="s">
+      <c r="H37" s="35" t="s">
         <v>127</v>
       </c>
       <c r="I37" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="60"/>
+      <c r="K37" s="55"/>
       <c r="L37" s="23" t="s">
         <v>120</v>
       </c>
@@ -2056,16 +2023,16 @@
       <c r="E38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="H38" s="30" t="s">
         <v>128</v>
       </c>
       <c r="I38" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="K38" s="60">
+      <c r="K38" s="55">
         <v>2</v>
       </c>
-      <c r="L38" s="37" t="s">
+      <c r="L38" s="31" t="s">
         <v>119</v>
       </c>
       <c r="M38" s="27" t="s">
@@ -2086,14 +2053,14 @@
       <c r="E39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="35" t="s">
+      <c r="H39" s="29" t="s">
         <v>125</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="K39" s="60"/>
-      <c r="L39" s="39" t="s">
+      <c r="K39" s="55"/>
+      <c r="L39" s="33" t="s">
         <v>120</v>
       </c>
       <c r="M39" s="27" t="s">
@@ -2108,16 +2075,16 @@
     </row>
     <row r="40" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="21"/>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="36" t="s">
         <v>88</v>
       </c>
       <c r="E40" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="K40" s="60">
+      <c r="K40" s="55">
         <v>3</v>
       </c>
-      <c r="L40" s="38" t="s">
+      <c r="L40" s="32" t="s">
         <v>119</v>
       </c>
       <c r="M40" s="27" t="s">
@@ -2134,14 +2101,14 @@
       <c r="C41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="43" t="s">
+      <c r="E41" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="K41" s="60"/>
-      <c r="L41" s="40" t="s">
+      <c r="K41" s="55"/>
+      <c r="L41" s="34" t="s">
         <v>120</v>
       </c>
       <c r="M41" s="27" t="s">
@@ -2150,7 +2117,7 @@
       <c r="O41" t="s">
         <v>136</v>
       </c>
-      <c r="P41" s="51" t="s">
+      <c r="P41" s="45" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2159,7 +2126,7 @@
       <c r="D42" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="36" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2167,7 +2134,7 @@
       <c r="C43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="31" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="13" t="s">
@@ -2178,7 +2145,7 @@
       <c r="C44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="33" t="s">
         <v>92</v>
       </c>
       <c r="E44" s="16" t="s">
@@ -2187,7 +2154,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="32" t="s">
         <v>93</v>
       </c>
       <c r="E45" s="15" t="s">
@@ -2196,7 +2163,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="34" t="s">
         <v>94</v>
       </c>
       <c r="E46" s="19" t="s">
@@ -2218,7 +2185,7 @@
       <c r="C48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="35" t="s">
         <v>96</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -2229,7 +2196,7 @@
       <c r="C49" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="30" t="s">
         <v>97</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -2246,14 +2213,14 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="55" t="s">
+      <c r="D51" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="55"/>
+      <c r="E51" s="54"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D53" s="5"/>
@@ -2269,18 +2236,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D24:E25"/>
-    <mergeCell ref="D51:E52"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K40:K41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/electrical/astrowiring_diagram.xlsx
+++ b/electrical/astrowiring_diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Documents\School\2018-19\Spring\ECE 4990-001        IEEE Robotics\astrohub\electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159B1F33-DD54-4220-A17B-13BD580F9C33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB31069D-4573-4BFC-837C-B24DA28CB08F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4290" yWindow="6000" windowWidth="8685" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -833,6 +833,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -843,9 +846,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,27 +1229,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
       <c r="L2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="51"/>
       <c r="I3" s="3" t="s">
         <v>78</v>
       </c>
@@ -1461,11 +1461,11 @@
       <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -1819,22 +1819,22 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="54"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="50"/>
+      <c r="E26" s="51"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
@@ -1907,11 +1907,11 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -1919,10 +1919,10 @@
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="50"/>
+      <c r="E35" s="51"/>
       <c r="H35" s="24" t="s">
         <v>124</v>
       </c>
@@ -1959,11 +1959,11 @@
       <c r="E36" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="H36" s="35" t="s">
         <v>126</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K36" s="55">
         <v>1</v>
@@ -1995,11 +1995,11 @@
       <c r="E37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H37" s="28" t="s">
         <v>127</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K37" s="55"/>
       <c r="L37" s="23" t="s">
@@ -2023,11 +2023,11 @@
       <c r="E38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="29" t="s">
         <v>128</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K38" s="55">
         <v>2</v>
@@ -2053,11 +2053,11 @@
       <c r="E39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" s="30" t="s">
         <v>125</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K39" s="55"/>
       <c r="L39" s="33" t="s">
@@ -2213,14 +2213,14 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="54" t="s">
+      <c r="D51" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="54"/>
+      <c r="E51" s="50"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D53" s="5"/>
@@ -2236,18 +2236,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D24:E25"/>
     <mergeCell ref="D51:E52"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="K36:K37"/>
     <mergeCell ref="K38:K39"/>
     <mergeCell ref="K40:K41"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D24:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
